--- a/Energy_Planning_User_Interface.xlsx
+++ b/Energy_Planning_User_Interface.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26TrilateralProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://numcmy-my.sharepoint.com/personal/ebxps1_nottingham_edu_my/Documents/The University of Nottingham/BC COP26 Trilateral Research Initiative/BCCOP26TrilateralProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DB19A-FFD1-42D7-A20C-3319E3386068}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FC0CE38B941621620119CDBF4FEB728E8262A692" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1F2C1E75-A7CF-483E-80BD-FD98BB7D53EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANT_DATA" sheetId="1" r:id="rId1"/>
@@ -650,6 +650,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,9 +677,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,241 +1003,241 @@
     <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="9" width="19.85546875" style="1" customWidth="1"/>
-    <col min="10" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>41</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -1495,182 +1495,182 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:9" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:9" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:9" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:9" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="13" t="s">
+    <row r="47" spans="1:9" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="13" t="s">
+    <row r="48" spans="1:9" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="13" t="s">
+    <row r="49" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="13" t="s">
+    <row r="50" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="13" t="s">
+    <row r="51" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="13" t="s">
+    <row r="52" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="13" t="s">
+    <row r="53" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="13" t="s">
+    <row r="54" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="13" t="s">
+    <row r="55" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="13" t="s">
+    <row r="56" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="13" t="s">
+    <row r="57" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="3:5" s="13" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="13" t="s">
+    <row r="58" spans="3:5" s="14" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="3:5" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:5" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:5" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:5" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:5" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:5" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="3:5" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="3:5" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="3:5" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:5" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="3:5" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:5" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:I1"/>
@@ -1732,108 +1732,108 @@
       <c r="A1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1916,13 +1916,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1961,263 +1961,263 @@
       <c r="A1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2372,18 +2372,18 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2418,8 +2418,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="18.5703125" style="13"/>
+    <col min="1" max="4" width="18.5703125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="18.5703125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2461,34 +2461,34 @@
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>10</v>
       </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>10</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2496,34 +2496,34 @@
       <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
         <v>0.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2531,34 +2531,34 @@
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2566,34 +2566,34 @@
       <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
         <v>0.5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2601,34 +2601,34 @@
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
         <v>0.8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2636,34 +2636,34 @@
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
         <v>10</v>
       </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <v>10</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <v>10</v>
       </c>
     </row>
@@ -2671,34 +2671,34 @@
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>20</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>17.23</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>2.77</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <v>14.65</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <v>17.41</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>5.35</v>
       </c>
     </row>
@@ -2706,34 +2706,34 @@
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>20</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
         <v>17</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>17</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>3</v>
       </c>
     </row>
@@ -2741,13 +2741,13 @@
       <c r="A10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2755,13 +2755,13 @@
       <c r="A11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="14">
         <v>5.59</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="14">
         <v>-3.35</v>
       </c>
     </row>
@@ -2769,13 +2769,13 @@
       <c r="A12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2783,13 +2783,13 @@
       <c r="A13" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2797,13 +2797,13 @@
       <c r="A14" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2811,13 +2811,13 @@
       <c r="A15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2825,13 +2825,13 @@
       <c r="A16" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2839,10 +2839,10 @@
       <c r="A17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <v>15</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="14">
         <v>5717.82</v>
       </c>
     </row>
@@ -2861,8 +2861,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="18.5703125" style="13"/>
+    <col min="1" max="4" width="18.5703125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="18.5703125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2904,34 +2904,34 @@
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>10</v>
       </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>10</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2939,34 +2939,34 @@
       <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
         <v>0.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2974,34 +2974,34 @@
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
         <v>5</v>
       </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <v>5</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <v>2.5</v>
       </c>
     </row>
@@ -3009,34 +3009,34 @@
       <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
         <v>0.5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3044,34 +3044,34 @@
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
         <v>0.8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3079,34 +3079,34 @@
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>20</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>17.98</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <v>2.02</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="14">
         <v>15.28</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <v>17.3</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <v>4.72</v>
       </c>
     </row>
@@ -3114,34 +3114,34 @@
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>20</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>20</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <v>17</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <v>17</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>3</v>
       </c>
     </row>
@@ -3149,34 +3149,34 @@
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>20</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
         <v>17</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>17</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>3</v>
       </c>
     </row>
@@ -3184,13 +3184,13 @@
       <c r="A10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3198,13 +3198,13 @@
       <c r="A11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="14">
         <v>-5.22</v>
       </c>
     </row>
@@ -3212,13 +3212,13 @@
       <c r="A12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3226,13 +3226,13 @@
       <c r="A13" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3240,13 +3240,13 @@
       <c r="A14" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3254,13 +3254,13 @@
       <c r="A15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3268,13 +3268,13 @@
       <c r="A16" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3282,10 +3282,10 @@
       <c r="A17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <v>8</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="14">
         <v>7649.18</v>
       </c>
     </row>
@@ -3304,8 +3304,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="18.7109375" style="13"/>
+    <col min="1" max="4" width="18.7109375" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="18.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3347,34 +3347,34 @@
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>10</v>
       </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>10</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3382,34 +3382,34 @@
       <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
         <v>0.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3417,34 +3417,34 @@
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>16.149999999999999</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>3.85</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
         <v>13.72</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="14">
         <v>17.579999999999998</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <v>3.14</v>
       </c>
     </row>
@@ -3452,34 +3452,34 @@
       <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
         <v>0.5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3487,34 +3487,34 @@
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
         <v>0.8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3522,34 +3522,34 @@
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>20</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>20</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
         <v>17</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <v>17</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <v>3</v>
       </c>
     </row>
@@ -3557,34 +3557,34 @@
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>20</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>20</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <v>17</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <v>17</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>3</v>
       </c>
     </row>
@@ -3592,34 +3592,34 @@
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>20</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
         <v>17</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>17</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>3</v>
       </c>
     </row>
@@ -3627,13 +3627,13 @@
       <c r="A10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="14">
         <v>11.42</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="14">
         <v>-9.14</v>
       </c>
     </row>
@@ -3641,13 +3641,13 @@
       <c r="A11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3655,13 +3655,13 @@
       <c r="A12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3669,13 +3669,13 @@
       <c r="A13" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3683,13 +3683,13 @@
       <c r="A14" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3697,13 +3697,13 @@
       <c r="A15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3711,13 +3711,13 @@
       <c r="A16" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3725,10 +3725,10 @@
       <c r="A17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <v>3</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="14">
         <v>10066.780000000001</v>
       </c>
     </row>
@@ -3747,430 +3747,431 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="18.5703125" style="13"/>
+    <col min="1" max="2" width="18.5703125" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="18.5703125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>10</v>
       </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>10</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
         <v>0.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
         <v>0.5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
         <v>0.8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>20</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>20</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
         <v>17</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <v>17</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>10</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>3.73</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>6.27</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <v>3.17</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <v>9.44</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>6.83</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>20</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
         <v>17</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>17</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="14">
         <v>6.56</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="14">
         <v>-3.94</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <v>8.9</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="14">
         <v>6000</v>
       </c>
     </row>
@@ -4189,430 +4190,431 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="18.7109375" style="13"/>
+    <col min="1" max="2" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="18.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>10</v>
       </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>10</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="14">
         <v>5</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>0.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="14">
         <v>4.1100000000000003</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="14">
         <v>0.89</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="14">
         <v>3.49</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="14">
         <v>4.38</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="14">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
         <v>0.5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
         <v>0.8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>20</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>20</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
         <v>17</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <v>17</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>20</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>20</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <v>17</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <v>17</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>20</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
         <v>17</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>17</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="14">
         <v>9.6199999999999992</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="14">
         <v>-7.69</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <v>2.06</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="14">
         <v>8000</v>
       </c>
     </row>
@@ -4625,436 +4627,437 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="18.5703125" style="13"/>
+    <col min="1" max="2" width="18.5703125" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="18.5703125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>10</v>
       </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>10</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="14">
         <v>14.56</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>0.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="14">
         <v>14.56</v>
       </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
         <v>12.38</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="14">
         <v>12.38</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="14">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>5.44</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>0.5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
         <v>5.44</v>
       </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <v>5.44</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="14">
         <v>2.72</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
         <v>0.8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>20</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>20</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
         <v>17</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <v>17</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>20</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>20</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <v>17</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <v>17</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>20</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
         <v>17</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>17</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="14">
         <v>11.18</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="14">
         <v>-8.9499999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <v>3.86</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="14">
         <v>10000</v>
       </c>
     </row>
